--- a/EL SALVADOR/Delitos/Indicadores sobre hechos de violencia contra las mujeres 2019.xlsx
+++ b/EL SALVADOR/Delitos/Indicadores sobre hechos de violencia contra las mujeres 2019.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carol\DATA INTELLIGENCE Dropbox\Diseño DATA's\BBDD-CENTROAMERICA\EL SALVADOR\Delitos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BACE5FD-A31B-4A74-A9D4-95058C86ABF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CCCD82F-8812-49E6-9A3A-B80653FE6E4B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="78">
   <si>
     <t>Indicadores Homicidios y Feminicidios 2019</t>
   </si>
@@ -73,9 +73,6 @@
   </si>
   <si>
     <t>No Registrado</t>
-  </si>
-  <si>
-    <t>ND</t>
   </si>
   <si>
     <t>Enero</t>
@@ -548,7 +545,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -574,15 +571,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -599,9 +587,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -624,9 +609,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -692,15 +674,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -804,20 +777,102 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="58">
+  <dxfs count="59">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -836,7 +891,7 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right style="thin">
           <color auto="1"/>
@@ -847,8 +902,6 @@
         <bottom style="thin">
           <color auto="1"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1317,39 +1370,6 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
       <numFmt numFmtId="30" formatCode="@"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
@@ -1798,35 +1818,6 @@
         <right style="thin">
           <color auto="1"/>
         </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
         <top/>
         <bottom style="thin">
           <color auto="1"/>
@@ -2032,92 +2023,92 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6C3C5032-5D4B-453B-A1D7-705C10AA2EEA}" name="Muertes_violentas_de_personas_por_sexo_2019" displayName="Muertes_violentas_de_personas_por_sexo_2019" ref="B6:C9" totalsRowShown="0" headerRowDxfId="57" headerRowBorderDxfId="56" tableBorderDxfId="55" totalsRowBorderDxfId="54">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6C3C5032-5D4B-453B-A1D7-705C10AA2EEA}" name="Muertes_violentas_de_personas_por_sexo_2019" displayName="Muertes_violentas_de_personas_por_sexo_2019" ref="B6:C9" totalsRowShown="0" headerRowDxfId="58" headerRowBorderDxfId="57" tableBorderDxfId="56" totalsRowBorderDxfId="55">
   <autoFilter ref="B6:C9" xr:uid="{572231C8-662E-4DCE-B969-51624A65E3F2}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{90BF348E-2882-45A3-BAA4-1DA34430DCFB}" name="Sexo de la Víctima" dataDxfId="53"/>
-    <tableColumn id="5" xr3:uid="{6C67EA79-287F-4752-8B8E-1B6D461C5EF9}" name="Cantidad de muertes violentas" dataDxfId="52"/>
+    <tableColumn id="1" xr3:uid="{90BF348E-2882-45A3-BAA4-1DA34430DCFB}" name="Sexo de la Víctima" dataDxfId="54"/>
+    <tableColumn id="5" xr3:uid="{6C67EA79-287F-4752-8B8E-1B6D461C5EF9}" name="Cantidad de muertes violentas" dataDxfId="53"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{DBDE300D-ECCF-43D3-9A32-A4772FD9B7A1}" name="Muertes_violentas_de_mujeres_2019" displayName="Muertes_violentas_de_mujeres_2019" ref="B6:C8" totalsRowShown="0" headerRowDxfId="51" headerRowBorderDxfId="50" tableBorderDxfId="49" totalsRowBorderDxfId="48">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{DBDE300D-ECCF-43D3-9A32-A4772FD9B7A1}" name="Muertes_violentas_de_mujeres_2019" displayName="Muertes_violentas_de_mujeres_2019" ref="B6:C8" totalsRowShown="0" headerRowDxfId="52" headerRowBorderDxfId="51" tableBorderDxfId="50" totalsRowBorderDxfId="49">
   <autoFilter ref="B6:C8" xr:uid="{59E51C8D-B8C7-4B31-8D79-2913B63F92F3}"/>
   <tableColumns count="2">
-    <tableColumn id="3" xr3:uid="{CC05D147-9AEC-4547-A663-DC0E66C03654}" name="Tipo de Muerte Violenta" dataDxfId="47"/>
-    <tableColumn id="1" xr3:uid="{E96761E2-B4F5-4AD5-9DD6-AF102ECC3973}" name="Cantidad de Muertes" dataDxfId="46"/>
+    <tableColumn id="3" xr3:uid="{CC05D147-9AEC-4547-A663-DC0E66C03654}" name="Tipo de Muerte Violenta" dataDxfId="48"/>
+    <tableColumn id="1" xr3:uid="{E96761E2-B4F5-4AD5-9DD6-AF102ECC3973}" name="Cantidad de Muertes" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{E7258B31-7AAC-49E0-B510-ABEEDFC7CA72}" name="Tipo_de_arma_en_muertes_violentas_mujeres_2019" displayName="Tipo_de_arma_en_muertes_violentas_mujeres_2019" ref="B6:C11" totalsRowShown="0" headerRowDxfId="45" dataDxfId="43" headerRowBorderDxfId="44" tableBorderDxfId="42" totalsRowBorderDxfId="41">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{E7258B31-7AAC-49E0-B510-ABEEDFC7CA72}" name="Tipo_de_arma_en_muertes_violentas_mujeres_2019" displayName="Tipo_de_arma_en_muertes_violentas_mujeres_2019" ref="B6:C11" totalsRowShown="0" headerRowDxfId="47" dataDxfId="45" headerRowBorderDxfId="46" tableBorderDxfId="44" totalsRowBorderDxfId="43">
   <autoFilter ref="B6:C11" xr:uid="{8E862036-1553-4420-B44B-FB53DD892594}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{9F6D0B17-88E3-48E3-ADF4-D039CEAF05A3}" name="Tipo de Arma" dataDxfId="40"/>
-    <tableColumn id="7" xr3:uid="{89AAF9AD-65E4-4C3C-9BDE-C7943827D500}" name="Muertes Violentas de Mujeres" dataDxfId="39"/>
+    <tableColumn id="1" xr3:uid="{9F6D0B17-88E3-48E3-ADF4-D039CEAF05A3}" name="Tipo de Arma" dataDxfId="42"/>
+    <tableColumn id="7" xr3:uid="{89AAF9AD-65E4-4C3C-9BDE-C7943827D500}" name="Muertes Violentas de Mujeres" dataDxfId="41"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{AD9D539E-3451-4017-B081-4B0C8099ADED}" name="Arma_en_muertes_violentas_de_personas_2019" displayName="Arma_en_muertes_violentas_de_personas_2019" ref="B14:C19" totalsRowShown="0" headerRowDxfId="38" dataDxfId="36" headerRowBorderDxfId="37" tableBorderDxfId="35" totalsRowBorderDxfId="34">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{AD9D539E-3451-4017-B081-4B0C8099ADED}" name="Arma_en_muertes_violentas_de_personas_2019" displayName="Arma_en_muertes_violentas_de_personas_2019" ref="B14:C19" totalsRowShown="0" headerRowDxfId="40" dataDxfId="38" headerRowBorderDxfId="39" tableBorderDxfId="37" totalsRowBorderDxfId="36">
   <autoFilter ref="B14:C19" xr:uid="{AECBB116-5313-4C19-A521-C480CE51C77A}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{6BE5D4BB-812D-4F77-9542-26532AE135BE}" name="Tipo de Arma" dataDxfId="33"/>
-    <tableColumn id="7" xr3:uid="{0B1277D4-2604-4831-A297-F15310368012}" name="Muertes Violentas de Personas" dataDxfId="32"/>
+    <tableColumn id="1" xr3:uid="{6BE5D4BB-812D-4F77-9542-26532AE135BE}" name="Tipo de Arma" dataDxfId="35"/>
+    <tableColumn id="7" xr3:uid="{0B1277D4-2604-4831-A297-F15310368012}" name="Muertes Violentas de Personas" dataDxfId="34"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{DF275727-4111-4493-A3C5-A118A0C3C5F8}" name="Muertes_violentas_por_sexo_por_edades_2019" displayName="Muertes_violentas_por_sexo_por_edades_2019" ref="B6:D60" totalsRowShown="0" headerRowDxfId="31" dataDxfId="29" headerRowBorderDxfId="30" tableBorderDxfId="28" totalsRowBorderDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{DF275727-4111-4493-A3C5-A118A0C3C5F8}" name="Muertes_violentas_por_sexo_por_edades_2019" displayName="Muertes_violentas_por_sexo_por_edades_2019" ref="B6:D60" totalsRowShown="0" headerRowDxfId="33" dataDxfId="31" headerRowBorderDxfId="32" tableBorderDxfId="30" totalsRowBorderDxfId="29">
   <autoFilter ref="B6:D60" xr:uid="{9C27F03B-6EFC-469A-BD21-0400F0AE6830}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{CF6A23D2-5F13-4848-9F1B-CECCFBD5C0EB}" name="Sexo" dataDxfId="26"/>
-    <tableColumn id="20" xr3:uid="{79F11EF1-6598-4E2D-A691-2636B26B5A85}" name="Rango de Edad" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{990D953C-BC74-4C2E-9214-FB82B0C60CA3}" name="Cantidad de Muertes Violentas" dataDxfId="24"/>
+    <tableColumn id="1" xr3:uid="{CF6A23D2-5F13-4848-9F1B-CECCFBD5C0EB}" name="Sexo" dataDxfId="28"/>
+    <tableColumn id="20" xr3:uid="{79F11EF1-6598-4E2D-A691-2636B26B5A85}" name="Rango de Edad" dataDxfId="27"/>
+    <tableColumn id="2" xr3:uid="{990D953C-BC74-4C2E-9214-FB82B0C60CA3}" name="Cantidad de Muertes Violentas" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{AD413E29-B381-47A5-9739-607144C43B25}" name="Muertes_violentas_de_personas_segun_mes_de_hallazgo_por_sexo_2019" displayName="Muertes_violentas_de_personas_segun_mes_de_hallazgo_por_sexo_2019" ref="B6:D42" totalsRowShown="0" headerRowDxfId="23" headerRowBorderDxfId="22" tableBorderDxfId="21" totalsRowBorderDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{AD413E29-B381-47A5-9739-607144C43B25}" name="Muertes_violentas_de_personas_segun_mes_de_hallazgo_por_sexo_2019" displayName="Muertes_violentas_de_personas_segun_mes_de_hallazgo_por_sexo_2019" ref="B6:D42" totalsRowShown="0" headerRowDxfId="26" headerRowBorderDxfId="25" tableBorderDxfId="24" totalsRowBorderDxfId="23">
   <autoFilter ref="B6:D42" xr:uid="{E4C9C7FC-29A0-47B4-BA43-8A325FAEE1B3}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{54998987-A6BE-47DF-BC15-399D7798A260}" name="Sexo" dataDxfId="19"/>
-    <tableColumn id="15" xr3:uid="{C5AE47F6-B9AE-A44A-B4F2-335CFE9140DE}" name="Mes de hallazgo" dataDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{D95186C9-BB64-4C07-90F0-5C9B2F2A323A}" name="Cantidad de Muertes Violentas" dataDxfId="17"/>
+    <tableColumn id="1" xr3:uid="{54998987-A6BE-47DF-BC15-399D7798A260}" name="Sexo" dataDxfId="22"/>
+    <tableColumn id="15" xr3:uid="{C5AE47F6-B9AE-A44A-B4F2-335CFE9140DE}" name="Mes de hallazgo" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{D95186C9-BB64-4C07-90F0-5C9B2F2A323A}" name="Cantidad de Muertes Violentas" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{4FE3A16F-DDAC-4E70-A614-D9CE4A44DAC5}" name="Victimarios_de_muertes_violentas_de_victimas_mujeres_y_hombres_por_edad_sexo_2019" displayName="Victimarios_de_muertes_violentas_de_victimas_mujeres_y_hombres_por_edad_sexo_2019" ref="B5:D50" totalsRowShown="0" headerRowDxfId="16" dataDxfId="14" headerRowBorderDxfId="15" tableBorderDxfId="13" totalsRowBorderDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{4FE3A16F-DDAC-4E70-A614-D9CE4A44DAC5}" name="Victimarios_de_muertes_violentas_de_victimas_mujeres_y_hombres_por_edad_sexo_2019" displayName="Victimarios_de_muertes_violentas_de_victimas_mujeres_y_hombres_por_edad_sexo_2019" ref="B5:D50" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18" tableBorderDxfId="16" totalsRowBorderDxfId="15">
   <autoFilter ref="B5:D50" xr:uid="{2158B07F-14AA-4BD4-A7E4-25C9A9CF9580}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{D65CB087-5027-4FE1-A13E-BAA8A36A4F9B}" name="Rango de edad de Victimario/a" dataDxfId="11" totalsRowDxfId="10"/>
-    <tableColumn id="6" xr3:uid="{42DEA489-B52F-3B46-A417-39DE7A789CE1}" name="Sexo" dataDxfId="9" totalsRowDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{DE3B9EC5-32E6-4062-A932-31B65469EE77}" name="Cantida de Victimarios/as" dataDxfId="7" totalsRowDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{D65CB087-5027-4FE1-A13E-BAA8A36A4F9B}" name="Rango de edad de Victimario/a" dataDxfId="14" totalsRowDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{42DEA489-B52F-3B46-A417-39DE7A789CE1}" name="Sexo" dataDxfId="12" totalsRowDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{DE3B9EC5-32E6-4062-A932-31B65469EE77}" name="Cantida de Victimarios/as" dataDxfId="10" totalsRowDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{207E90CC-72B6-4085-8114-D8D88C13E9A8}" name="Victimarios_de_muertes_violentas_por_vinculo_con_pandillas_2019" displayName="Victimarios_de_muertes_violentas_por_vinculo_con_pandillas_2019" ref="B5:D14" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" tableBorderDxfId="3" totalsRowBorderDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{207E90CC-72B6-4085-8114-D8D88C13E9A8}" name="Victimarios_de_muertes_violentas_por_vinculo_con_pandillas_2019" displayName="Victimarios_de_muertes_violentas_por_vinculo_con_pandillas_2019" ref="B5:D14" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="7" tableBorderDxfId="6" totalsRowBorderDxfId="5">
   <autoFilter ref="B5:D14" xr:uid="{F61D57A0-63BC-46E4-B554-A5F7528E5A92}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{77C46468-23E1-41BA-8A94-C73A6A79F9A0}" name="Grupo delictivo" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{1BF54A4C-8C8B-4D13-8C3E-04103FA97BC5}" name="Sexo" dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{D5D6868B-EF9F-4901-A5AF-89885F64A4BD}" name="Cantida de Victimarios/as"/>
+    <tableColumn id="1" xr3:uid="{77C46468-23E1-41BA-8A94-C73A6A79F9A0}" name="Grupo delictivo" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{1BF54A4C-8C8B-4D13-8C3E-04103FA97BC5}" name="Sexo" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{D5D6868B-EF9F-4901-A5AF-89885F64A4BD}" name="Cantida de Victimarios/as" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2389,7 +2380,7 @@
   <dimension ref="B2:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:C9"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2399,70 +2390,70 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="95" t="s">
+      <c r="B2" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="95" t="s">
+      <c r="B3" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
-      <c r="G3" s="40" t="s">
-        <v>37</v>
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
+      <c r="G3" s="35" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="80" t="s">
+      <c r="B5" s="72" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="C6" s="24" t="s">
-        <v>49</v>
+      <c r="C6" s="20" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="83">
+      <c r="C7" s="75">
         <v>2126</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="84">
+      <c r="C8" s="76">
         <v>230</v>
       </c>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
     </row>
     <row r="9" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" s="86">
+      <c r="B9" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="78">
         <v>42</v>
       </c>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
     </row>
     <row r="10" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
     </row>
     <row r="12" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D12" s="4"/>
@@ -2490,7 +2481,7 @@
   <dimension ref="B2:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C7" sqref="C7:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2501,75 +2492,75 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="95" t="s">
+      <c r="B2" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="95" t="s">
+      <c r="B3" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="95"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
     </row>
     <row r="5" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
+      <c r="B5" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="C6" s="25" t="s">
+      <c r="B6" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="E6" s="40" t="s">
-        <v>37</v>
+      <c r="C6" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" s="35" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="45" t="s">
+      <c r="B7" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="27">
+      <c r="C7" s="75">
         <v>112</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="49" t="s">
+      <c r="B8" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="23">
+      <c r="C8" s="76">
         <v>118</v>
       </c>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
     </row>
     <row r="10" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
@@ -2613,7 +2604,7 @@
   <dimension ref="B2:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="C15" sqref="C15:C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2627,142 +2618,142 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
     </row>
     <row r="5" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="46" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
+      <c r="B5" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="45" t="s">
+      <c r="D6" s="35" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="73">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="74">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="74">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="74">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="74">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="D6" s="40" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="44" t="s">
+      <c r="D14" s="38" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="81">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="28" t="s">
+      <c r="C15" s="75">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="82">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="28" t="s">
+      <c r="C16" s="76">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="82">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="28" t="s">
+      <c r="C17" s="76">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="82">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="28" t="s">
+      <c r="C18" s="76">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="82">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="42" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="C14" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="D14" s="43" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="44" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="83">
-        <v>1700</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="84">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="84">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="84">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B19" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="84">
+      <c r="C19" s="76">
         <v>60</v>
       </c>
     </row>
@@ -2781,7 +2772,7 @@
   <dimension ref="B2:X62"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13:C54"/>
+      <selection activeCell="D7" sqref="D7:D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2795,696 +2786,696 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B2" s="95" t="s">
+      <c r="B2" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95"/>
-      <c r="G2" s="95"/>
-      <c r="H2" s="95"/>
-      <c r="I2" s="95"/>
-      <c r="J2" s="95"/>
-      <c r="K2" s="95"/>
-      <c r="L2" s="95"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
     </row>
     <row r="3" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B3" s="95" t="s">
+      <c r="B3" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="95"/>
-      <c r="G3" s="95"/>
-      <c r="H3" s="95"/>
-      <c r="I3" s="95"/>
-      <c r="J3" s="95"/>
-      <c r="K3" s="95"/>
-      <c r="L3" s="95"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
     </row>
     <row r="5" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="59" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="59"/>
-      <c r="H5" s="59"/>
-      <c r="I5" s="59"/>
-      <c r="J5" s="59"/>
-      <c r="K5" s="59"/>
-      <c r="L5" s="59"/>
-      <c r="M5" s="59"/>
-      <c r="N5" s="59"/>
-      <c r="O5" s="59"/>
-      <c r="P5" s="59"/>
-      <c r="Q5" s="59"/>
-      <c r="R5" s="59"/>
-      <c r="S5" s="59"/>
-      <c r="T5" s="59"/>
+      <c r="B5" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="51"/>
+      <c r="M5" s="51"/>
+      <c r="N5" s="51"/>
+      <c r="O5" s="51"/>
+      <c r="P5" s="51"/>
+      <c r="Q5" s="51"/>
+      <c r="R5" s="51"/>
+      <c r="S5" s="51"/>
+      <c r="T5" s="51"/>
     </row>
     <row r="6" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B6" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" s="29" t="s">
+      <c r="B6" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="D6" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="F6" s="96" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" s="96"/>
-      <c r="H6" s="96"/>
-      <c r="I6" s="96"/>
-      <c r="J6" s="96"/>
-      <c r="K6" s="96"/>
-      <c r="L6" s="96"/>
-      <c r="M6" s="96"/>
-      <c r="N6" s="96"/>
-      <c r="O6" s="96"/>
-      <c r="P6" s="96"/>
-      <c r="Q6" s="96"/>
-      <c r="R6" s="96"/>
-      <c r="S6" s="96"/>
-      <c r="T6" s="96"/>
-      <c r="U6" s="96"/>
-      <c r="V6" s="96"/>
-      <c r="W6" s="96"/>
-      <c r="X6" s="96"/>
+      <c r="F6" s="89" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="89"/>
+      <c r="H6" s="89"/>
+      <c r="I6" s="89"/>
+      <c r="J6" s="89"/>
+      <c r="K6" s="89"/>
+      <c r="L6" s="89"/>
+      <c r="M6" s="89"/>
+      <c r="N6" s="89"/>
+      <c r="O6" s="89"/>
+      <c r="P6" s="89"/>
+      <c r="Q6" s="89"/>
+      <c r="R6" s="89"/>
+      <c r="S6" s="89"/>
+      <c r="T6" s="89"/>
+      <c r="U6" s="89"/>
+      <c r="V6" s="89"/>
+      <c r="W6" s="89"/>
+      <c r="X6" s="89"/>
     </row>
     <row r="7" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B7" s="50" t="s">
+      <c r="B7" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="31" t="s">
+      <c r="C7" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="90">
+        <v>3</v>
+      </c>
+      <c r="F7" s="47" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B8" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="90">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B9" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D10" s="90">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B11" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="48" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" s="90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B12" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="48" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" s="90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B13" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" s="90">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B14" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" s="90">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B15" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15" s="90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B16" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="49" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" s="91">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="49" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" s="91">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="49" t="s">
+        <v>64</v>
+      </c>
+      <c r="D18" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="49" t="s">
+        <v>65</v>
+      </c>
+      <c r="D19" s="91">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="49" t="s">
+        <v>65</v>
+      </c>
+      <c r="D20" s="91">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="49" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="49" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22" s="91">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" s="49" t="s">
+        <v>66</v>
+      </c>
+      <c r="D23" s="91">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B24" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="49" t="s">
+        <v>66</v>
+      </c>
+      <c r="D24" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B25" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="48" t="s">
+        <v>67</v>
+      </c>
+      <c r="D25" s="92">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B26" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" s="48" t="s">
+        <v>67</v>
+      </c>
+      <c r="D26" s="92">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B27" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" s="48" t="s">
+        <v>67</v>
+      </c>
+      <c r="D27" s="75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B28" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" s="48" t="s">
+        <v>68</v>
+      </c>
+      <c r="D28" s="92">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B29" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29" s="48" t="s">
+        <v>68</v>
+      </c>
+      <c r="D29" s="92">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B30" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="C30" s="48" t="s">
+        <v>68</v>
+      </c>
+      <c r="D30" s="75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B31" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="D31" s="92">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B32" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="D32" s="92">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B33" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="D33" s="75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B34" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" s="48" t="s">
+        <v>70</v>
+      </c>
+      <c r="D34" s="92">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B35" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="C35" s="48" t="s">
+        <v>70</v>
+      </c>
+      <c r="D35" s="92">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B36" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="C36" s="48" t="s">
+        <v>70</v>
+      </c>
+      <c r="D36" s="75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B37" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="D37" s="92">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B38" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="C38" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="D38" s="92">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B39" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="C39" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="D39" s="75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B40" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40" s="48" t="s">
+        <v>72</v>
+      </c>
+      <c r="D40" s="92">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B41" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="C41" s="48" t="s">
+        <v>72</v>
+      </c>
+      <c r="D41" s="92">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B42" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="C42" s="48" t="s">
+        <v>72</v>
+      </c>
+      <c r="D42" s="75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B43" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="C43" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="D43" s="93">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B44" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="C44" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="D44" s="92">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B45" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="D45" s="94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B46" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="C46" s="48" t="s">
+        <v>74</v>
+      </c>
+      <c r="D46" s="93">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B47" s="50" t="s">
+        <v>2</v>
+      </c>
+      <c r="C47" s="48" t="s">
+        <v>74</v>
+      </c>
+      <c r="D47" s="92">
         <v>3</v>
       </c>
-      <c r="F7" s="52" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B8" s="50" t="s">
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B48" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="C48" s="48" t="s">
+        <v>74</v>
+      </c>
+      <c r="D48" s="93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B49" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="C49" s="48" t="s">
+        <v>75</v>
+      </c>
+      <c r="D49" s="93">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B50" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="D8" s="9">
+      <c r="C50" s="48" t="s">
+        <v>75</v>
+      </c>
+      <c r="D50" s="92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B51" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="C51" s="48" t="s">
+        <v>75</v>
+      </c>
+      <c r="D51" s="93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B52" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="C52" s="48" t="s">
+        <v>76</v>
+      </c>
+      <c r="D52" s="93">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B53" s="50" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B9" s="50" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="D9" s="9">
+      <c r="C53" s="48" t="s">
+        <v>76</v>
+      </c>
+      <c r="D53" s="92">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B54" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="C54" s="48" t="s">
+        <v>76</v>
+      </c>
+      <c r="D54" s="93">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="50" t="s">
+    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B55" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="56" t="s">
-        <v>63</v>
-      </c>
-      <c r="D10" s="9">
+      <c r="C55" s="48" t="s">
+        <v>77</v>
+      </c>
+      <c r="D55" s="93">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B56" s="50" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B11" s="50" t="s">
+      <c r="C56" s="48" t="s">
+        <v>77</v>
+      </c>
+      <c r="D56" s="92">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B57" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="C57" s="48" t="s">
+        <v>77</v>
+      </c>
+      <c r="D57" s="93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B58" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="C58" s="48" t="s">
+        <v>45</v>
+      </c>
+      <c r="D58" s="93">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B59" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="56" t="s">
-        <v>63</v>
-      </c>
-      <c r="D11" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B12" s="50" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" s="56" t="s">
-        <v>63</v>
-      </c>
-      <c r="D12" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B13" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="56" t="s">
-        <v>64</v>
-      </c>
-      <c r="D13" s="9">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B14" s="50" t="s">
-        <v>2</v>
-      </c>
-      <c r="C14" s="56" t="s">
-        <v>64</v>
-      </c>
-      <c r="D14" s="9">
+      <c r="C59" s="48" t="s">
+        <v>45</v>
+      </c>
+      <c r="D59" s="92">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B15" s="50" t="s">
-        <v>46</v>
-      </c>
-      <c r="C15" s="56" t="s">
-        <v>64</v>
-      </c>
-      <c r="D15" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B16" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" s="57" t="s">
-        <v>65</v>
-      </c>
-      <c r="D16" s="11">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="50" t="s">
-        <v>2</v>
-      </c>
-      <c r="C17" s="57" t="s">
-        <v>65</v>
-      </c>
-      <c r="D17" s="11">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="50" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" s="57" t="s">
-        <v>65</v>
-      </c>
-      <c r="D18" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" s="57" t="s">
-        <v>66</v>
-      </c>
-      <c r="D19" s="11">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20" s="50" t="s">
-        <v>2</v>
-      </c>
-      <c r="C20" s="57" t="s">
-        <v>66</v>
-      </c>
-      <c r="D20" s="11">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B21" s="50" t="s">
-        <v>46</v>
-      </c>
-      <c r="C21" s="57" t="s">
-        <v>66</v>
-      </c>
-      <c r="D21" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B22" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="C22" s="57" t="s">
-        <v>67</v>
-      </c>
-      <c r="D22" s="11">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B23" s="50" t="s">
-        <v>2</v>
-      </c>
-      <c r="C23" s="57" t="s">
-        <v>67</v>
-      </c>
-      <c r="D23" s="11">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B24" s="50" t="s">
-        <v>46</v>
-      </c>
-      <c r="C24" s="57" t="s">
-        <v>67</v>
-      </c>
-      <c r="D24" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B25" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="C25" s="56" t="s">
-        <v>68</v>
-      </c>
-      <c r="D25" s="53">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B26" s="50" t="s">
-        <v>2</v>
-      </c>
-      <c r="C26" s="56" t="s">
-        <v>68</v>
-      </c>
-      <c r="D26" s="53">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B27" s="50" t="s">
-        <v>46</v>
-      </c>
-      <c r="C27" s="56" t="s">
-        <v>68</v>
-      </c>
-      <c r="D27" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B28" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="C28" s="56" t="s">
-        <v>69</v>
-      </c>
-      <c r="D28" s="53">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B29" s="50" t="s">
-        <v>2</v>
-      </c>
-      <c r="C29" s="56" t="s">
-        <v>69</v>
-      </c>
-      <c r="D29" s="53">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B30" s="50" t="s">
-        <v>46</v>
-      </c>
-      <c r="C30" s="56" t="s">
-        <v>69</v>
-      </c>
-      <c r="D30" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B31" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="C31" s="56" t="s">
-        <v>70</v>
-      </c>
-      <c r="D31" s="53">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B32" s="50" t="s">
-        <v>2</v>
-      </c>
-      <c r="C32" s="56" t="s">
-        <v>70</v>
-      </c>
-      <c r="D32" s="53">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B33" s="50" t="s">
-        <v>46</v>
-      </c>
-      <c r="C33" s="56" t="s">
-        <v>70</v>
-      </c>
-      <c r="D33" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B34" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="C34" s="56" t="s">
-        <v>71</v>
-      </c>
-      <c r="D34" s="53">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B35" s="50" t="s">
-        <v>2</v>
-      </c>
-      <c r="C35" s="56" t="s">
-        <v>71</v>
-      </c>
-      <c r="D35" s="53">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B36" s="50" t="s">
-        <v>46</v>
-      </c>
-      <c r="C36" s="56" t="s">
-        <v>71</v>
-      </c>
-      <c r="D36" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B37" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="C37" s="56" t="s">
-        <v>72</v>
-      </c>
-      <c r="D37" s="53">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B38" s="50" t="s">
-        <v>2</v>
-      </c>
-      <c r="C38" s="56" t="s">
-        <v>72</v>
-      </c>
-      <c r="D38" s="53">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B39" s="50" t="s">
-        <v>46</v>
-      </c>
-      <c r="C39" s="56" t="s">
-        <v>72</v>
-      </c>
-      <c r="D39" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B40" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="C40" s="56" t="s">
-        <v>73</v>
-      </c>
-      <c r="D40" s="53">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B41" s="50" t="s">
-        <v>2</v>
-      </c>
-      <c r="C41" s="56" t="s">
-        <v>73</v>
-      </c>
-      <c r="D41" s="53">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B42" s="50" t="s">
-        <v>46</v>
-      </c>
-      <c r="C42" s="56" t="s">
-        <v>73</v>
-      </c>
-      <c r="D42" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B43" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="C43" s="56" t="s">
-        <v>74</v>
-      </c>
-      <c r="D43" s="54">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B44" s="50" t="s">
-        <v>2</v>
-      </c>
-      <c r="C44" s="56" t="s">
-        <v>74</v>
-      </c>
-      <c r="D44" s="53">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B45" s="50" t="s">
-        <v>46</v>
-      </c>
-      <c r="C45" s="56" t="s">
-        <v>74</v>
-      </c>
-      <c r="D45" s="55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B46" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="C46" s="56" t="s">
-        <v>75</v>
-      </c>
-      <c r="D46" s="54">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B47" s="58" t="s">
-        <v>2</v>
-      </c>
-      <c r="C47" s="56" t="s">
-        <v>75</v>
-      </c>
-      <c r="D47" s="53">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B48" s="50" t="s">
-        <v>46</v>
-      </c>
-      <c r="C48" s="56" t="s">
-        <v>75</v>
-      </c>
-      <c r="D48" s="54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B49" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="C49" s="56" t="s">
-        <v>76</v>
-      </c>
-      <c r="D49" s="54">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B50" s="58" t="s">
-        <v>2</v>
-      </c>
-      <c r="C50" s="56" t="s">
-        <v>76</v>
-      </c>
-      <c r="D50" s="53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B51" s="50" t="s">
-        <v>46</v>
-      </c>
-      <c r="C51" s="56" t="s">
-        <v>76</v>
-      </c>
-      <c r="D51" s="54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B52" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="C52" s="56" t="s">
-        <v>77</v>
-      </c>
-      <c r="D52" s="54">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B53" s="58" t="s">
-        <v>2</v>
-      </c>
-      <c r="C53" s="56" t="s">
-        <v>77</v>
-      </c>
-      <c r="D53" s="53">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B54" s="50" t="s">
-        <v>46</v>
-      </c>
-      <c r="C54" s="56" t="s">
-        <v>77</v>
-      </c>
-      <c r="D54" s="54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B55" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="C55" s="56" t="s">
-        <v>78</v>
-      </c>
-      <c r="D55" s="54">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B56" s="58" t="s">
-        <v>2</v>
-      </c>
-      <c r="C56" s="56" t="s">
-        <v>78</v>
-      </c>
-      <c r="D56" s="53">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B57" s="50" t="s">
-        <v>46</v>
-      </c>
-      <c r="C57" s="56" t="s">
-        <v>78</v>
-      </c>
-      <c r="D57" s="54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B58" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="C58" s="56" t="s">
-        <v>46</v>
-      </c>
-      <c r="D58" s="54">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B59" s="58" t="s">
-        <v>2</v>
-      </c>
-      <c r="C59" s="56" t="s">
-        <v>46</v>
-      </c>
-      <c r="D59" s="53">
-        <v>6</v>
-      </c>
-    </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B60" s="51" t="s">
-        <v>46</v>
-      </c>
-      <c r="C60" s="56" t="s">
-        <v>46</v>
-      </c>
-      <c r="D60" s="55">
+      <c r="B60" s="46" t="s">
+        <v>45</v>
+      </c>
+      <c r="C60" s="48" t="s">
+        <v>45</v>
+      </c>
+      <c r="D60" s="94">
         <v>42</v>
       </c>
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B61" s="51"/>
-      <c r="C61" s="85"/>
-      <c r="D61" s="23"/>
+      <c r="B61" s="46"/>
+      <c r="C61" s="77"/>
+      <c r="D61" s="19"/>
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B62" s="51"/>
-      <c r="C62" s="85"/>
-      <c r="D62" s="23"/>
+      <c r="B62" s="46"/>
+      <c r="C62" s="77"/>
+      <c r="D62" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3504,8 +3495,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B2:R42"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7:D42"/>
+    <sheetView topLeftCell="A11" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34:F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3521,484 +3512,484 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B2" s="71" t="s">
+      <c r="B2" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="71"/>
-      <c r="L2" s="71"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B3" s="71" t="s">
+      <c r="B3" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="71"/>
-      <c r="K3" s="71"/>
-      <c r="L3" s="71"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="63"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B5" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
+      <c r="B5" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="36"/>
     </row>
     <row r="6" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="63" t="s">
+      <c r="B6" s="55" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="55" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" s="56" t="s">
+        <v>57</v>
+      </c>
+      <c r="F6" s="53" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="53"/>
+      <c r="L6" s="53"/>
+      <c r="M6" s="47"/>
+      <c r="N6" s="47"/>
+      <c r="O6" s="47"/>
+      <c r="P6" s="47"/>
+      <c r="Q6" s="47"/>
+      <c r="R6" s="47"/>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B7" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="58" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="79">
+        <v>255</v>
+      </c>
+      <c r="F7" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
+      <c r="K7" s="53"/>
+      <c r="L7" s="53"/>
+      <c r="M7" s="53"/>
+      <c r="N7" s="53"/>
+      <c r="O7" s="53"/>
+      <c r="P7" s="53"/>
+      <c r="Q7" s="53"/>
+      <c r="R7" s="53"/>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B8" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="63" t="s">
-        <v>59</v>
-      </c>
-      <c r="D6" s="64" t="s">
-        <v>58</v>
-      </c>
-      <c r="F6" s="61" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" s="61"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="61"/>
-      <c r="J6" s="61"/>
-      <c r="K6" s="61"/>
-      <c r="L6" s="61"/>
-      <c r="M6" s="52"/>
-      <c r="N6" s="52"/>
-      <c r="O6" s="52"/>
-      <c r="P6" s="52"/>
-      <c r="Q6" s="52"/>
-      <c r="R6" s="52"/>
-    </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B7" s="65" t="s">
+      <c r="C8" s="58" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="79">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B9" s="57" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="58" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="66" t="s">
+      <c r="C10" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="87">
-        <v>255</v>
-      </c>
-      <c r="F7" s="62" t="s">
+      <c r="D10" s="81">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B11" s="57" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="60" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="81">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B12" s="57" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="60" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="80">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B13" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="60" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="81">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B14" s="57" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="60" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="81">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B15" s="57" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="60" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="80">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B16" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="61" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="82">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="57" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="61" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="79">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="57" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="61" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="83">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="79">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" s="57" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="81">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" s="57" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="80">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="81">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23" s="57" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="81">
         <v>25</v>
       </c>
-      <c r="G7" s="61"/>
-      <c r="H7" s="61"/>
-      <c r="I7" s="61"/>
-      <c r="J7" s="61"/>
-      <c r="K7" s="61"/>
-      <c r="L7" s="61"/>
-      <c r="M7" s="61"/>
-      <c r="N7" s="61"/>
-      <c r="O7" s="61"/>
-      <c r="P7" s="61"/>
-      <c r="Q7" s="61"/>
-      <c r="R7" s="61"/>
-    </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B8" s="65" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8" s="66" t="s">
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B24" s="57" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="80">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B25" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" s="81">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B26" s="57" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" s="81">
         <v>12</v>
       </c>
-      <c r="D8" s="87">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B9" s="65" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" s="66" t="s">
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B27" s="57" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" s="80">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B28" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" s="60" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" s="81">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B29" s="57" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" s="60" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" s="81">
         <v>12</v>
       </c>
-      <c r="D9" s="88">
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B30" s="57" t="s">
+        <v>45</v>
+      </c>
+      <c r="C30" s="60" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30" s="80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B31" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="D31" s="81">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B32" s="57" t="s">
+        <v>44</v>
+      </c>
+      <c r="C32" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="D32" s="81">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B33" s="57" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33" s="80">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B34" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" s="60" t="s">
+        <v>20</v>
+      </c>
+      <c r="D34" s="81">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B35" s="57" t="s">
+        <v>44</v>
+      </c>
+      <c r="C35" s="60" t="s">
+        <v>20</v>
+      </c>
+      <c r="D35" s="81">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B36" s="57" t="s">
+        <v>45</v>
+      </c>
+      <c r="C36" s="60" t="s">
+        <v>20</v>
+      </c>
+      <c r="D36" s="80">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B37" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="D37" s="81">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B38" s="57" t="s">
+        <v>44</v>
+      </c>
+      <c r="C38" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="D38" s="81">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B39" s="57" t="s">
+        <v>45</v>
+      </c>
+      <c r="C39" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="D39" s="80">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="65" t="s">
+    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B40" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="68" t="s">
+      <c r="C40" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="D40" s="81">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B41" s="57" t="s">
+        <v>44</v>
+      </c>
+      <c r="C41" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="D41" s="81">
         <v>13</v>
       </c>
-      <c r="D10" s="89">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B11" s="65" t="s">
-        <v>45</v>
-      </c>
-      <c r="C11" s="68" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="89">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B12" s="65" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" s="68" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="88">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B13" s="65" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="68" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="89">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B14" s="65" t="s">
-        <v>45</v>
-      </c>
-      <c r="C14" s="68" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="89">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B15" s="65" t="s">
-        <v>46</v>
-      </c>
-      <c r="C15" s="68" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" s="88">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B16" s="65" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" s="69" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="90">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="65" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" s="69" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" s="87">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="65" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" s="69" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" s="91">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="65" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" s="69" t="s">
-        <v>16</v>
-      </c>
-      <c r="D19" s="87">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20" s="65" t="s">
-        <v>45</v>
-      </c>
-      <c r="C20" s="69" t="s">
-        <v>16</v>
-      </c>
-      <c r="D20" s="89">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B21" s="65" t="s">
-        <v>46</v>
-      </c>
-      <c r="C21" s="69" t="s">
-        <v>16</v>
-      </c>
-      <c r="D21" s="88">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B22" s="65" t="s">
-        <v>1</v>
-      </c>
-      <c r="C22" s="70" t="s">
-        <v>17</v>
-      </c>
-      <c r="D22" s="89">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B23" s="65" t="s">
-        <v>45</v>
-      </c>
-      <c r="C23" s="70" t="s">
-        <v>17</v>
-      </c>
-      <c r="D23" s="89">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B24" s="65" t="s">
-        <v>46</v>
-      </c>
-      <c r="C24" s="70" t="s">
-        <v>17</v>
-      </c>
-      <c r="D24" s="88">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B25" s="65" t="s">
-        <v>1</v>
-      </c>
-      <c r="C25" s="68" t="s">
-        <v>18</v>
-      </c>
-      <c r="D25" s="89">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B26" s="65" t="s">
-        <v>45</v>
-      </c>
-      <c r="C26" s="68" t="s">
-        <v>18</v>
-      </c>
-      <c r="D26" s="89">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B27" s="65" t="s">
-        <v>46</v>
-      </c>
-      <c r="C27" s="68" t="s">
-        <v>18</v>
-      </c>
-      <c r="D27" s="88">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B28" s="65" t="s">
-        <v>1</v>
-      </c>
-      <c r="C28" s="68" t="s">
-        <v>19</v>
-      </c>
-      <c r="D28" s="89">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B29" s="65" t="s">
-        <v>45</v>
-      </c>
-      <c r="C29" s="68" t="s">
-        <v>19</v>
-      </c>
-      <c r="D29" s="89">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B30" s="65" t="s">
-        <v>46</v>
-      </c>
-      <c r="C30" s="68" t="s">
-        <v>19</v>
-      </c>
-      <c r="D30" s="88">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B31" s="65" t="s">
-        <v>1</v>
-      </c>
-      <c r="C31" s="68" t="s">
-        <v>20</v>
-      </c>
-      <c r="D31" s="89">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B32" s="65" t="s">
-        <v>45</v>
-      </c>
-      <c r="C32" s="68" t="s">
-        <v>20</v>
-      </c>
-      <c r="D32" s="89">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B33" s="65" t="s">
-        <v>46</v>
-      </c>
-      <c r="C33" s="68" t="s">
-        <v>20</v>
-      </c>
-      <c r="D33" s="88">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B34" s="65" t="s">
-        <v>1</v>
-      </c>
-      <c r="C34" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="D34" s="89">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B35" s="65" t="s">
-        <v>45</v>
-      </c>
-      <c r="C35" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="D35" s="89">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B36" s="65" t="s">
-        <v>46</v>
-      </c>
-      <c r="C36" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="D36" s="88">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B37" s="65" t="s">
-        <v>1</v>
-      </c>
-      <c r="C37" s="68" t="s">
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B42" s="57" t="s">
+        <v>45</v>
+      </c>
+      <c r="C42" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="D37" s="89">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B38" s="65" t="s">
-        <v>45</v>
-      </c>
-      <c r="C38" s="68" t="s">
-        <v>22</v>
-      </c>
-      <c r="D38" s="89">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B39" s="65" t="s">
-        <v>46</v>
-      </c>
-      <c r="C39" s="68" t="s">
-        <v>22</v>
-      </c>
-      <c r="D39" s="88">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B40" s="65" t="s">
-        <v>1</v>
-      </c>
-      <c r="C40" s="68" t="s">
-        <v>23</v>
-      </c>
-      <c r="D40" s="89">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B41" s="65" t="s">
-        <v>45</v>
-      </c>
-      <c r="C41" s="68" t="s">
-        <v>23</v>
-      </c>
-      <c r="D41" s="89">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B42" s="65" t="s">
-        <v>46</v>
-      </c>
-      <c r="C42" s="68" t="s">
-        <v>23</v>
-      </c>
-      <c r="D42" s="88">
+      <c r="D42" s="80">
         <v>3</v>
       </c>
     </row>
@@ -4017,7 +4008,7 @@
   <dimension ref="B1:N51"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4031,31 +4022,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B1" s="75" t="s">
-        <v>43</v>
+      <c r="B1" s="67" t="s">
+        <v>42</v>
       </c>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="73" t="s">
+      <c r="B2" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="65"/>
+      <c r="I2" s="9"/>
+    </row>
+    <row r="3" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="66" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="66"/>
+      <c r="I3" s="3"/>
+    </row>
+    <row r="4" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B4" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="73"/>
-      <c r="I2" s="12"/>
-    </row>
-    <row r="3" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="74" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="74"/>
-      <c r="I3" s="3"/>
-    </row>
-    <row r="4" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="72" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
@@ -4063,593 +4054,593 @@
       <c r="M4" s="4"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="70" t="s">
         <v>60</v>
       </c>
-      <c r="C5" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" s="78" t="s">
-        <v>61</v>
-      </c>
       <c r="F5" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="J5" s="17"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="14"/>
+        <v>26</v>
+      </c>
+      <c r="J5" s="14"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="11"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B6" s="56" t="s">
+      <c r="B6" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="84">
+        <v>5</v>
+      </c>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B7" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="84">
+        <v>1</v>
+      </c>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="11"/>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B8" s="87" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="84">
+        <v>0</v>
+      </c>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="11"/>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B9" s="87" t="s">
         <v>64</v>
       </c>
-      <c r="C6" s="32" t="s">
+      <c r="C9" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="84">
+        <v>303</v>
+      </c>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="11"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B10" s="87" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="92">
-        <v>5</v>
-      </c>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B7" s="56" t="s">
+      <c r="D10" s="84">
+        <v>17</v>
+      </c>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B11" s="87" t="s">
         <v>64</v>
       </c>
-      <c r="C7" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="92">
+      <c r="C11" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="84">
+        <v>0</v>
+      </c>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B12" s="87" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="84">
+        <v>504</v>
+      </c>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B13" s="87" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="84">
+        <v>13</v>
+      </c>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B14" s="87" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="84">
         <v>1</v>
       </c>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="14"/>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B8" s="97" t="s">
-        <v>64</v>
-      </c>
-      <c r="C8" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="D8" s="92">
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B15" s="87" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="84">
+        <v>345</v>
+      </c>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B16" s="87" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="84">
+        <v>8</v>
+      </c>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B17" s="87" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="84">
+        <v>1</v>
+      </c>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B18" s="87" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="84">
+        <v>196</v>
+      </c>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B19" s="87" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="84">
+        <v>3</v>
+      </c>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="12"/>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B20" s="87" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" s="84">
+        <v>1</v>
+      </c>
+      <c r="J20" s="8"/>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B21" s="48" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="84">
+        <v>121</v>
+      </c>
+      <c r="I21" s="13"/>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B22" s="48" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="84">
+        <v>2</v>
+      </c>
+      <c r="I22" s="7"/>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B23" s="48" t="s">
+        <v>68</v>
+      </c>
+      <c r="C23" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" s="84">
         <v>0</v>
       </c>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="14"/>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B9" s="97" t="s">
-        <v>65</v>
-      </c>
-      <c r="C9" s="32" t="s">
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B24" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" s="84">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B25" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="C25" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="92">
-        <v>303</v>
-      </c>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="14"/>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B10" s="97" t="s">
-        <v>65</v>
-      </c>
-      <c r="C10" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="92">
-        <v>17</v>
-      </c>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B11" s="97" t="s">
-        <v>65</v>
-      </c>
-      <c r="C11" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="D11" s="92">
+      <c r="D25" s="84">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B26" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="C26" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="D26" s="84">
         <v>0</v>
       </c>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="14"/>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B12" s="97" t="s">
-        <v>66</v>
-      </c>
-      <c r="C12" s="32" t="s">
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B27" s="48" t="s">
+        <v>70</v>
+      </c>
+      <c r="C27" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27" s="84">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B28" s="48" t="s">
+        <v>70</v>
+      </c>
+      <c r="C28" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="92">
-        <v>504</v>
-      </c>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="14"/>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B13" s="97" t="s">
-        <v>66</v>
-      </c>
-      <c r="C13" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="92">
-        <v>13</v>
-      </c>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="14"/>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B14" s="97" t="s">
-        <v>66</v>
-      </c>
-      <c r="C14" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" s="92">
-        <v>1</v>
-      </c>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="14"/>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B15" s="97" t="s">
-        <v>67</v>
-      </c>
-      <c r="C15" s="32" t="s">
+      <c r="D28" s="84">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B29" s="48" t="s">
+        <v>70</v>
+      </c>
+      <c r="C29" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="D29" s="84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B30" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="C30" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="D30" s="84">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B31" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="C31" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="92">
-        <v>345</v>
-      </c>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="14"/>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B16" s="97" t="s">
-        <v>67</v>
-      </c>
-      <c r="C16" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" s="92">
+      <c r="D31" s="84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B32" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="C32" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="D32" s="84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B33" s="48" t="s">
+        <v>72</v>
+      </c>
+      <c r="C33" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="D33" s="84">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B34" s="48" t="s">
+        <v>72</v>
+      </c>
+      <c r="C34" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="D34" s="84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B35" s="48" t="s">
+        <v>72</v>
+      </c>
+      <c r="C35" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="D35" s="84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B36" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C36" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="D36" s="84">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B37" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C37" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="D37" s="84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B38" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C38" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="D38" s="84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B39" s="48" t="s">
+        <v>74</v>
+      </c>
+      <c r="C39" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="D39" s="84">
         <v>8</v>
       </c>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="14"/>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B17" s="97" t="s">
-        <v>67</v>
-      </c>
-      <c r="C17" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="D17" s="92">
-        <v>1</v>
-      </c>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="14"/>
-      <c r="N17" s="14"/>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B18" s="97" t="s">
-        <v>68</v>
-      </c>
-      <c r="C18" s="32" t="s">
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B40" s="48" t="s">
+        <v>74</v>
+      </c>
+      <c r="C40" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="92">
-        <v>196</v>
-      </c>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="14"/>
-      <c r="N18" s="14"/>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B19" s="97" t="s">
-        <v>68</v>
-      </c>
-      <c r="C19" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="D19" s="92">
+      <c r="D40" s="84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B41" s="48" t="s">
+        <v>74</v>
+      </c>
+      <c r="C41" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="D41" s="84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B42" s="48" t="s">
+        <v>75</v>
+      </c>
+      <c r="C42" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="D42" s="84">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B43" s="48" t="s">
+        <v>75</v>
+      </c>
+      <c r="C43" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="D43" s="84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B44" s="48" t="s">
+        <v>75</v>
+      </c>
+      <c r="C44" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="D44" s="84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B45" s="48" t="s">
+        <v>76</v>
+      </c>
+      <c r="C45" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="D45" s="84">
         <v>3</v>
       </c>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="15"/>
-      <c r="N19" s="15"/>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B20" s="97" t="s">
-        <v>68</v>
-      </c>
-      <c r="C20" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="D20" s="92">
-        <v>1</v>
-      </c>
-      <c r="J20" s="8"/>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B21" s="56" t="s">
-        <v>69</v>
-      </c>
-      <c r="C21" s="32" t="s">
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B46" s="48" t="s">
+        <v>76</v>
+      </c>
+      <c r="C46" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="D21" s="92">
-        <v>121</v>
-      </c>
-      <c r="I21" s="16"/>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B22" s="56" t="s">
-        <v>69</v>
-      </c>
-      <c r="C22" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="D22" s="92">
-        <v>2</v>
-      </c>
-      <c r="I22" s="7"/>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B23" s="56" t="s">
-        <v>69</v>
-      </c>
-      <c r="C23" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="D23" s="92">
+      <c r="D46" s="84">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B24" s="56" t="s">
-        <v>70</v>
-      </c>
-      <c r="C24" s="32" t="s">
+    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B47" s="48" t="s">
+        <v>76</v>
+      </c>
+      <c r="C47" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="D47" s="84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B48" s="68" t="s">
+        <v>45</v>
+      </c>
+      <c r="C48" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="D48" s="84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B49" s="68" t="s">
+        <v>45</v>
+      </c>
+      <c r="C49" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="D24" s="92">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B25" s="56" t="s">
-        <v>70</v>
-      </c>
-      <c r="C25" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="D25" s="92">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B26" s="56" t="s">
-        <v>70</v>
-      </c>
-      <c r="C26" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="D26" s="92">
+      <c r="D49" s="84">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B27" s="56" t="s">
-        <v>71</v>
-      </c>
-      <c r="C27" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="D27" s="92">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B28" s="56" t="s">
-        <v>71</v>
-      </c>
-      <c r="C28" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="D28" s="92">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B29" s="56" t="s">
-        <v>71</v>
-      </c>
-      <c r="C29" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="D29" s="92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B30" s="56" t="s">
-        <v>72</v>
-      </c>
-      <c r="C30" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="D30" s="92">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B31" s="56" t="s">
-        <v>72</v>
-      </c>
-      <c r="C31" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="D31" s="92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B32" s="56" t="s">
-        <v>72</v>
-      </c>
-      <c r="C32" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="D32" s="92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B33" s="56" t="s">
-        <v>73</v>
-      </c>
-      <c r="C33" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="D33" s="92">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B34" s="56" t="s">
-        <v>73</v>
-      </c>
-      <c r="C34" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="D34" s="92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B35" s="56" t="s">
-        <v>73</v>
-      </c>
-      <c r="C35" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="D35" s="92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B36" s="56" t="s">
-        <v>74</v>
-      </c>
-      <c r="C36" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="D36" s="92">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B37" s="56" t="s">
-        <v>74</v>
-      </c>
-      <c r="C37" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="D37" s="92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B38" s="56" t="s">
-        <v>74</v>
-      </c>
-      <c r="C38" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="D38" s="92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B39" s="56" t="s">
-        <v>75</v>
-      </c>
-      <c r="C39" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="D39" s="92">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B40" s="56" t="s">
-        <v>75</v>
-      </c>
-      <c r="C40" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="D40" s="92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B41" s="56" t="s">
-        <v>75</v>
-      </c>
-      <c r="C41" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="D41" s="92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B42" s="56" t="s">
-        <v>76</v>
-      </c>
-      <c r="C42" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="D42" s="92">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B43" s="56" t="s">
-        <v>76</v>
-      </c>
-      <c r="C43" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="D43" s="92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B44" s="56" t="s">
-        <v>76</v>
-      </c>
-      <c r="C44" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="D44" s="92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B45" s="56" t="s">
-        <v>77</v>
-      </c>
-      <c r="C45" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="D45" s="92">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B46" s="56" t="s">
-        <v>77</v>
-      </c>
-      <c r="C46" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="D46" s="92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B47" s="56" t="s">
-        <v>77</v>
-      </c>
-      <c r="C47" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="D47" s="92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B48" s="76" t="s">
-        <v>11</v>
-      </c>
-      <c r="C48" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="D48" s="92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B49" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C49" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="D49" s="92">
-        <v>0</v>
-      </c>
-    </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B50" s="76" t="s">
-        <v>11</v>
-      </c>
-      <c r="C50" s="77" t="s">
-        <v>46</v>
-      </c>
-      <c r="D50" s="93">
+      <c r="B50" s="68" t="s">
+        <v>45</v>
+      </c>
+      <c r="C50" s="69" t="s">
+        <v>45</v>
+      </c>
+      <c r="D50" s="85">
         <v>2053</v>
       </c>
     </row>
-    <row r="51" spans="2:4" s="67" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:4" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B51"/>
       <c r="C51"/>
       <c r="D51"/>
@@ -4669,8 +4660,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4681,146 +4672,146 @@
   <sheetData>
     <row r="1" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E4" s="15"/>
+    </row>
+    <row r="5" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="39" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E4" s="19"/>
-    </row>
-    <row r="5" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="21" t="s">
+      <c r="C5" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="71" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" s="79" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="35" t="s">
+      <c r="D6" s="84">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="35" t="s">
+      <c r="C7" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="84">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="84">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="10">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="35" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="35" t="s">
+      <c r="D9" s="84">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="10">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="35" t="s">
+      <c r="D10" s="84">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="18">
-        <v>1384</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="36" t="s">
+      <c r="D11" s="84">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="10">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="35" t="s">
+      <c r="C12" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="84">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="10">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="36" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" s="10">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13" s="36" t="s">
-        <v>46</v>
-      </c>
-      <c r="D13" s="10">
+      <c r="C13" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="84">
         <v>16</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="C14" s="36" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" s="18">
+      <c r="B14" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="84">
         <v>1156</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="94" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="60"/>
-      <c r="D16" s="60"/>
+      <c r="B16" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="52"/>
+      <c r="D16" s="52"/>
     </row>
     <row r="19" spans="5:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E19" s="60"/>
-      <c r="F19" s="60"/>
-      <c r="G19" s="60"/>
+      <c r="E19" s="52"/>
+      <c r="F19" s="52"/>
+      <c r="G19" s="52"/>
     </row>
   </sheetData>
   <phoneticPr fontId="13" type="noConversion"/>
